--- a/YRchen_meeting_20200924.xlsx
+++ b/YRchen_meeting_20200924.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Owner</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -575,6 +575,10 @@
       </rPr>
       <t>實測改善結果</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gggg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -752,43 +756,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1012,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O11"/>
+  <dimension ref="B2:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1037,67 +1041,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="6" t="s">
         <v>19</v>
       </c>
@@ -1116,38 +1120,38 @@
       <c r="J7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="18"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="2:13" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>44095</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="11">
         <v>44098</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="11">
         <v>44095</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="11">
         <v>44096</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K8" s="4"/>
-      <c r="L8" s="12"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="2:13" ht="81" customHeight="1" x14ac:dyDescent="0.3">
@@ -1157,29 +1161,29 @@
       <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="15">
         <v>44092</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="15">
         <v>44099</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="15">
         <v>44092</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="16" t="s">
+      <c r="H9" s="15"/>
+      <c r="I9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="12" t="s">
         <v>28</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="13"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="2:13" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1189,74 +1193,82 @@
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="15">
         <v>44083</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="15">
         <v>44092</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="15">
         <v>44083</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="16" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="12" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="12"/>
+      <c r="L10" s="8"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="2:13" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>4</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="15">
         <v>44082</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="15">
         <v>44092</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="15">
         <v>44082</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="16" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="12" t="s">
         <v>3</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="12"/>
+      <c r="L11" s="8"/>
       <c r="M11" s="5"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B2:J2"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="C5:K5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
